--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_144.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_144.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[['F#:min', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:00:13.334625', '0:00:17.711587')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.302038', '0:00:05.800261')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1053956834532374</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'E/5', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(45.54, 47.95)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09510869565217392</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C:7', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09018567639257294</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.23, 7.63)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(13.440816, 20.824761)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:19.980000', '0:00:27.180000'), ('0:00:08.440000', '0:00:17.540000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1326086956521739</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(45.58, 53.44)]</t>
+          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.26, 24.7)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1576923076923077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06593406593406594</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_258</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1798449612403101</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[('0:00:34.180000', '0:00:36.980000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:31.138000', '0:00:34.969000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3652173913043478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.48, 20.96)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1266968325791855</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj'], ['C:maj', 'G/3', 'C:maj']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(82.290863, 90.185647), (91.834264, 98.974002)]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742), (157.019, 160.636)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2451923076923077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A/3'], ['A/3', 'D', 'A']]</t>
+          <t>[['B', 'B', 'E/5', 'B'], ['B', 'E/5', 'B', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(211.26, 219.14), (54.18, 61.46)]</t>
+          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(45.712, 51.648), (4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:55.629773', '0:01:04.604285'), ('0:00:58.625147', '0:01:07.541609')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:02.976598', '0:02:14.098957'), ('0:00:15.027029', '0:00:22.457415')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2003577817531306</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.6, 45.98)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(105.24, 120.1)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7'], ['Eb', 'C:min', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7'], ['D#', 'C:min', 'F:7/C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(82.09, 89.29), (96.49, 99.19)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.26, 43.74), (36.66, 38.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'Bb', 'F']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7352941176470589</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7/3', 'Eb/2', 'Bb']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.140181, 39.890204)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(34.724, 40.219)]</t>
+          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:02:00.541156', '0:02:15.808276')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.38, 38.52)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02377567140600316</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:min7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.75</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:min7', 'Bb:7']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.19, 2.73)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.91, 18.47)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_13</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1594405594405594</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.629455, 29.120975)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.02, 22.2)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
